--- a/Utlån Statistikk.xlsx
+++ b/Utlån Statistikk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannespedersen/Desktop/Skole/SOK-1004/Prosjektoppgave/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4EB78DA-A66A-BC41-A252-74F7B09E4C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806AAB24-D388-B04E-BE8B-74D6433D830A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17900" yWindow="3560" windowWidth="13840" windowHeight="15020" xr2:uid="{20016BCA-AFB8-1143-8D59-80EA5C13A9B5}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Utlån</t>
+    <t>År</t>
+  </si>
+  <si>
+    <t>Verdi</t>
   </si>
 </sst>
 </file>
@@ -390,54 +393,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A39D15-6E30-5848-B8EE-F9B7ED3AB135}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1905</v>
-      </c>
-      <c r="C1">
-        <v>1910</v>
-      </c>
-      <c r="D1">
-        <v>1915</v>
-      </c>
-      <c r="E1">
-        <v>1920</v>
-      </c>
-      <c r="F1">
-        <v>1925</v>
-      </c>
-      <c r="G1">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
       </c>
       <c r="B2">
         <v>340</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1910</v>
+      </c>
+      <c r="B3">
         <v>449</v>
       </c>
-      <c r="D2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1915</v>
+      </c>
+      <c r="B4">
         <v>656</v>
       </c>
-      <c r="E2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1920</v>
+      </c>
+      <c r="B5">
         <v>1732</v>
       </c>
-      <c r="F2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1925</v>
+      </c>
+      <c r="B6">
         <v>1805</v>
       </c>
-      <c r="G2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1930</v>
+      </c>
+      <c r="B7">
         <v>1491</v>
       </c>
     </row>
